--- a/results_comparison.xlsx
+++ b/results_comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="58">
   <si>
     <t>Evaluated_Period:</t>
   </si>
@@ -119,6 +119,92 @@
     <t>std2&amp;-2.5(9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019-01-07 to 2019-05-20</t>
+  </si>
+  <si>
+    <t>std2&amp;-2(9)</t>
+  </si>
+  <si>
+    <t>std2&amp;-2(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std2&amp;-2(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-12-28 to 2018-12-30</t>
+  </si>
+  <si>
+    <t>2004-01-04 to 2004-12-26</t>
+  </si>
+  <si>
+    <t>2005-01-02 to 2005-12-25</t>
+  </si>
+  <si>
+    <t>2006-01-01 to 2006-12-31</t>
+  </si>
+  <si>
+    <t>2007-01-07 to 2007-12-30</t>
+  </si>
+  <si>
+    <t>2008-01-06 to 2008-12-28</t>
+  </si>
+  <si>
+    <t>2009-01-04 to 2009-12-27</t>
+  </si>
+  <si>
+    <t>2010-01-03 to 2010-12-26</t>
+  </si>
+  <si>
+    <t>2011-01-02 to 2011-12-25</t>
+  </si>
+  <si>
+    <t>2012-01-01 to 2012-12-30</t>
+  </si>
+  <si>
+    <t>2013-01-06 to 2013-12-29</t>
+  </si>
+  <si>
+    <t>2014-01-05 to 2014-12-28</t>
+  </si>
+  <si>
+    <t>2015-01-04 to 2015-12-27</t>
+  </si>
+  <si>
+    <t>2016-01-03 to 2016-12-25</t>
+  </si>
+  <si>
+    <t>2017-01-01 to 2017-12-31</t>
+  </si>
+  <si>
+    <t>2018-01-07 to 2018-12-30</t>
+  </si>
+  <si>
+    <t>纯趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std2&amp;-2(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯趋势5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯趋势10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +236,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,6 +302,52 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -501,2502 +663,4100 @@
     <col min="6" max="6" width="11.36328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.36328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="11.36328125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="M2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>0.315</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>1.9654</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>1.0478000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>1.6851</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="6">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>1.6358999999999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H4" s="6">
         <v>1.4412</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="8">
+        <v>1.5926</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.5885</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1.6578999999999999</v>
+      </c>
+      <c r="L4" s="2">
         <v>1.4289000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="M4" s="2">
+        <v>1.5939000000000001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5467</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1.7057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>0.05</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>6.88E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="6">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H5" s="6">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="8">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="L5" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="M5" s="2">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.12870000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="6">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="2">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I6" s="8">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="L6" s="2">
         <v>6.4299999999999996E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="M6" s="2">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.88</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>0.63</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>0.73</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0.86</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="5">
         <v>0.74</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>0.72</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="5">
         <v>0.81</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="M7" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>-2.01E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>-0.80649999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>-0.39839999999999998</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>-0.39810000000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>-0.35749999999999998</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>-0.5423</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>-0.43519999999999998</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="8">
+        <v>-0.25919999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-0.25919999999999999</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-0.39760000000000001</v>
+      </c>
+      <c r="L8" s="2">
         <v>-0.23369999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="M8" s="2">
+        <v>-0.43519999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-0.43120000000000003</v>
+      </c>
+      <c r="O8" s="8">
+        <v>-0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>9.35E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>2.46E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>2.35E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I11" s="8">
+        <v>5.28E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.28E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>5.28E-2</v>
+      </c>
+      <c r="L11" s="2">
         <v>5.3199999999999997E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="M11" s="2">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>4.87E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I12" s="8">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="L12" s="2">
         <v>4.2500000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="M12" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>0.53</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>1.08</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>0.76</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>1.3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <v>0.69</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>0.48</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <v>1.25</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="L13" s="1">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="M13" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>-6.7699999999999996E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <v>-3.49E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>-3.6200000000000003E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>-4.8399999999999999E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>-3.49E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I14" s="8">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="L14" s="2">
         <v>-3.49E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="M14" s="2">
+        <v>-3.49E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="O14" s="8">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H17" s="6">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="8">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="L17" s="2">
         <v>6.8199999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="M17" s="2">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="2">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I18" s="8">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="L18" s="2">
         <v>5.3800000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="M18" s="2">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>8.7599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>1.03</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>1.18</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>1.31</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>1.2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>1.27</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I19" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="L19" s="1">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="M19" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>-4.3E-3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>-5.0799999999999998E-2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>-4.1399999999999999E-2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>-3.2099999999999997E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="2">
         <v>-3.9699999999999999E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <v>-4.07E-2</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I20" s="8">
+        <v>-5.9200000000000003E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-5.9200000000000003E-2</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-5.9200000000000003E-2</v>
+      </c>
+      <c r="L20" s="2">
         <v>-4.07E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="M20" s="2">
+        <v>-4.07E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>-5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>0.1288</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>0.1258</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>0.1172</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>0.1003</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <v>0.1241</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H23" s="6">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I23" s="8">
+        <v>0.1065</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0.1065</v>
+      </c>
+      <c r="L23" s="2">
         <v>9.8299999999999998E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="M23" s="2">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.1014</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>6.93E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>7.22E-2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="8">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="L24" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="M24" s="2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>4.96</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>1.86</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>1.88</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>1.62</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <v>2.23</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>1.9</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <v>1.61</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.33</v>
+      </c>
+      <c r="L25" s="1">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="M25" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>-5.7299999999999997E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>-5.5399999999999998E-2</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>-6.6100000000000006E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>-3.39E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>-5.3900000000000003E-2</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>-5.5300000000000002E-2</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="8">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="K26" s="12">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="L26" s="2">
         <v>-5.5300000000000002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="M26" s="2">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-5.16E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="2">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>4.53E-2</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="2">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H29" s="6">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I29" s="8">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8.09E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>8.09E-2</v>
+      </c>
+      <c r="L29" s="2">
         <v>9.2799999999999994E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="M29" s="2">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="O29" s="8">
+        <v>8.09E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B30" s="2">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>0.1055</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>0.10390000000000001</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <v>0.1047</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="2">
         <v>0.1033</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I30" s="8">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="K30" s="12">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="L30" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="M30" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="O30" s="8">
+        <v>7.4399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>5.56</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.43</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.44</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.7</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="5">
         <v>1.4</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>0.44</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <v>1.33</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L31" s="1">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="M31" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>-8.8599999999999998E-2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>-8.7300000000000003E-2</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>-8.5199999999999998E-2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>-4.4400000000000002E-2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>-8.6900000000000005E-2</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <v>-6.2300000000000001E-2</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I32" s="8">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="L32" s="2">
         <v>-6.2300000000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="M32" s="2">
+        <v>-6.2300000000000001E-2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>-7.2099999999999997E-2</v>
+      </c>
+      <c r="O32" s="8">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B35" s="2">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="2">
         <v>-0.39269999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>-7.4499999999999997E-2</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>-9.9900000000000003E-2</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="2">
         <v>-0.19339999999999999</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <v>-0.15379999999999999</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I35" s="8">
+        <v>-7.7799999999999994E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>-7.1800000000000003E-2</v>
+      </c>
+      <c r="K35" s="12">
+        <v>-6.8699999999999997E-2</v>
+      </c>
+      <c r="L35" s="2">
         <v>-7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="M35" s="2">
+        <v>-0.15379999999999999</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-0.1429</v>
+      </c>
+      <c r="O35" s="8">
+        <v>-7.7799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B36" s="2">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>0.23730000000000001</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>0.1014</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>0.10970000000000001</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>0.14410000000000001</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <v>0.1258</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I36" s="8">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="L36" s="2">
         <v>8.4199999999999997E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="M36" s="2">
+        <v>0.1258</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="O36" s="8">
+        <v>9.5299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>2.88</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>-1.66</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>-0.85</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>-0.78</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="5">
         <v>-0.91</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G37" s="1">
         <v>-1.34</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H37" s="5">
         <v>-1.22</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I37" s="7">
+        <v>-0.82</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-0.89</v>
+      </c>
+      <c r="K37" s="11">
+        <v>-0.46</v>
+      </c>
+      <c r="L37" s="1">
         <v>-0.91</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="M37" s="1">
+        <v>-1.22</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="O37" s="7">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="2">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>-0.42020000000000002</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>-0.11990000000000001</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="2">
         <v>-0.1258</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>-0.18129999999999999</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G38" s="2">
         <v>-0.252</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>-0.22140000000000001</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I38" s="8">
+        <v>-0.11890000000000001</v>
+      </c>
+      <c r="J38" s="2">
+        <v>-0.1038</v>
+      </c>
+      <c r="K38" s="12">
+        <v>-0.1721</v>
+      </c>
+      <c r="L38" s="2">
         <v>-0.1366</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="M38" s="2">
+        <v>-0.22140000000000001</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-0.2248</v>
+      </c>
+      <c r="O38" s="8">
+        <v>-0.11890000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B41" s="2">
         <v>7.6E-3</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>0.25219999999999998</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <v>0.16450000000000001</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="2">
         <v>0.192</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>0.12809999999999999</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G41" s="2">
         <v>0.16750000000000001</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H41" s="6">
         <v>0.16819999999999999</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I41" s="8">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.1736</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="L41" s="2">
         <v>9.3700000000000006E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="M41" s="2">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.1673</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0.17419999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="2">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>0.14580000000000001</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="2">
         <v>0.15340000000000001</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>0.14699999999999999</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="2">
         <v>0.1583</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <v>0.16009999999999999</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I42" s="8">
+        <v>0.1017</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="L42" s="2">
         <v>8.8700000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="M42" s="2">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0.1017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>0.64</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>1.17</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D43" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E43" s="1">
         <v>1.25</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="5">
         <v>0.87</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G43" s="1">
         <v>1.06</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H43" s="5">
         <v>1.05</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I43" s="7">
+        <v>1.71</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="L43" s="1">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="M43" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2">
         <v>-7.7000000000000002E-3</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>-0.2341</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>-0.15790000000000001</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E44" s="2">
         <v>-0.1595</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>-0.18160000000000001</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G44" s="2">
         <v>-0.1898</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <v>-0.18720000000000001</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I44" s="8">
+        <v>-6.8900000000000003E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="K44" s="12">
+        <v>-0.24399999999999999</v>
+      </c>
+      <c r="L44" s="2">
         <v>-8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="M44" s="2">
+        <v>-0.18720000000000001</v>
+      </c>
+      <c r="N44" s="2">
+        <v>-0.18659999999999999</v>
+      </c>
+      <c r="O44" s="8">
+        <v>-6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>0.12759999999999999</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="2">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G47" s="2">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I47" s="8">
+        <v>9.35E-2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>9.01E-2</v>
+      </c>
+      <c r="K47" s="12">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="L47" s="2">
         <v>7.2499999999999995E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="M47" s="2">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="N47" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O47" s="8">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="2">
         <v>0.13320000000000001</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>2.86E-2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="2">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>2.58E-2</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G48" s="2">
         <v>0.1071</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I48" s="8">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="K48" s="12">
+        <v>8.09E-2</v>
+      </c>
+      <c r="L48" s="2">
         <v>5.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="M48" s="2">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="N48" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="O48" s="8">
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>2.58</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>0.96</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D49" s="1">
         <v>2.11</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E49" s="1">
         <v>1.37</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="5">
         <v>1.82</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <v>0.24</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <v>1.26</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I49" s="7">
+        <v>1.18</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="L49" s="1">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="M49" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="O49" s="7">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2">
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>-0.14419999999999999</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="2">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <v>-5.7299999999999997E-2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G50" s="2">
         <v>-0.13150000000000001</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>-0.06</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="8">
+        <v>-7.4200000000000002E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+      <c r="K50" s="12">
+        <v>-8.0399999999999999E-2</v>
+      </c>
+      <c r="L50" s="2">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="M50" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="N50" s="2">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+      <c r="O50" s="8">
+        <v>-7.4200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53" s="2">
         <v>1.46E-2</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="2">
         <v>2.29E-2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D53" s="2">
         <v>-2.53E-2</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>-1.43E-2</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G53" s="2">
         <v>-2.07E-2</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="6">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I53" s="8">
+        <v>-2.2599999999999999E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="K53" s="12">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+      <c r="L53" s="2">
         <v>-1.11E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="M53" s="2">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="N53" s="2">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="O53" s="8">
+        <v>-2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="2">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>0.16869999999999999</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="2">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="2">
         <v>0.11650000000000001</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <v>0.1118</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <v>0.1047</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I54" s="8">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.1361</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0.1421</v>
+      </c>
+      <c r="L54" s="2">
         <v>0.1038</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="M54" s="2">
+        <v>0.1047</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.13739999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <v>1.98</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D55" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E55" s="1">
         <v>-0.12</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="5">
         <v>-0.25</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G55" s="1">
         <v>-0.18</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H55" s="5">
         <v>-0.06</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I55" s="7">
+        <v>-0.16</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-0.19</v>
+      </c>
+      <c r="K55" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="L55" s="1">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="M55" s="1">
+        <v>-0.06</v>
+      </c>
+      <c r="N55" s="1">
+        <v>-0.09</v>
+      </c>
+      <c r="O55" s="7">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B56" s="2">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>-0.161</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D56" s="2">
         <v>-0.107</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="2">
         <v>-0.1338</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>-8.9099999999999999E-2</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="2">
         <v>-0.125</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <v>-0.1232</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I56" s="8">
+        <v>-0.1648</v>
+      </c>
+      <c r="J56" s="2">
+        <v>-0.1648</v>
+      </c>
+      <c r="K56" s="12">
+        <v>-0.16769999999999999</v>
+      </c>
+      <c r="L56" s="2">
         <v>-0.1232</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="M56" s="2">
+        <v>-0.1232</v>
+      </c>
+      <c r="N56" s="2">
+        <v>-0.1212</v>
+      </c>
+      <c r="O56" s="8">
+        <v>-0.1648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>0.1517</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D59" s="2">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E59" s="2">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="2">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I59" s="8">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="K59" s="12">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="L59" s="2">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="M59" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N59" s="2">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="O59" s="8">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="2">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>2.29E-2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="2">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I60" s="8">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="K60" s="12">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L60" s="2">
         <v>4.4400000000000002E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="M60" s="2">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="N60" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O60" s="8">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B61" s="1">
         <v>0.87</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>1.56</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>0.81</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E61" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="5">
         <v>1.42</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G61" s="1">
         <v>1.27</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H61" s="5">
         <v>1.42</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I61" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="L61" s="1">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="M61" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="2">
         <v>-7.8600000000000003E-2</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D62" s="2">
         <v>-3.32E-2</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="2">
         <v>-4.58E-2</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>-1.9900000000000001E-2</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="2">
         <v>-5.7500000000000002E-2</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>-3.4500000000000003E-2</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I62" s="8">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="K62" s="12">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="L62" s="2">
         <v>-3.4500000000000003E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="M62" s="2">
+        <v>-3.4500000000000003E-2</v>
+      </c>
+      <c r="N62" s="2">
+        <v>-3.44E-2</v>
+      </c>
+      <c r="O62" s="8">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>0.25040000000000001</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D65" s="2">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="2">
         <v>0.12870000000000001</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="2">
         <v>0.23749999999999999</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="6">
         <v>0.12870000000000001</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I65" s="8">
+        <v>0.1249</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.1241</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="L65" s="2">
         <v>0.12870000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="M65" s="2">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0.1242</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="2">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D66" s="2">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="2">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="2">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I66" s="8">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="K66" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L66" s="2">
         <v>4.3700000000000003E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="M66" s="2">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="N66" s="2">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="O66" s="8">
+        <v>4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>3.23</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>3.15</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <v>2.95</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="5">
         <v>3.15</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G67" s="1">
         <v>3.22</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H67" s="5">
         <v>2.94</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="7">
+        <v>2.56</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="K67" s="11">
+        <v>2.57</v>
+      </c>
+      <c r="L67" s="1">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="M67" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="N67" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="O67" s="7">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="2">
         <v>-4.02E-2</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D68" s="2">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="2">
         <v>-2.3099999999999999E-2</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G68" s="2">
         <v>-3.7900000000000003E-2</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <v>-2.3099999999999999E-2</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I68" s="8">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="K68" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="L68" s="2">
         <v>-2.3099999999999999E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="M68" s="2">
+        <v>-2.3099999999999999E-2</v>
+      </c>
+      <c r="N68" s="2">
+        <v>-2.23E-2</v>
+      </c>
+      <c r="O68" s="8">
+        <v>-2.69E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>0.14410000000000001</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D71" s="2">
         <v>3.27E-2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="2">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>3.27E-2</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>0.14230000000000001</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H71" s="6">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I71" s="8">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="J71" s="2">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="K71" s="12">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L71" s="2">
         <v>6.9199999999999998E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="M71" s="2">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="N71" s="2">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="O71" s="8">
+        <v>7.9299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D72" s="2">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E72" s="2">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G72" s="2">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I72" s="8">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="K72" s="12">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="L72" s="2">
         <v>4.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="M72" s="2">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="N72" s="2">
+        <v>4.82E-2</v>
+      </c>
+      <c r="O72" s="8">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="1">
         <v>0.96</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>1.49</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D73" s="1">
         <v>1.9</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E73" s="1">
         <v>1.5</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="5">
         <v>1.9</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G73" s="1">
         <v>1.5</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H73" s="5">
         <v>1.4</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I73" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="K73" s="11">
+        <v>1.47</v>
+      </c>
+      <c r="L73" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="M73" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="O73" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>-4.3E-3</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>-6.93E-2</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>-9.4999999999999998E-3</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="2">
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>-9.4999999999999998E-3</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="2">
         <v>-6.8400000000000002E-2</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I74" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="J74" s="2">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="K74" s="12">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="L74" s="2">
         <v>-3.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="M74" s="2">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="N74" s="2">
+        <v>-3.6299999999999999E-2</v>
+      </c>
+      <c r="O74" s="8">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="2">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>1.03E-2</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E77" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>1.72E-2</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I77" s="8">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="K77" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L77" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="M77" s="2">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="N77" s="2">
+        <v>1.52E-2</v>
+      </c>
+      <c r="O77" s="8">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="2">
         <v>0.106</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D78" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="2">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>0.10489999999999999</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I78" s="8">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="J78" s="2">
+        <v>5.28E-2</v>
+      </c>
+      <c r="K78" s="12">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L78" s="2">
         <v>4.0599999999999997E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="M78" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N78" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="O78" s="8">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="1">
         <v>0.43</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <v>0.37</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D79" s="1">
         <v>0.49</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E79" s="1">
         <v>0.24</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="5">
         <v>0.76</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G79" s="1">
         <v>0.37</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H79" s="5">
         <v>0.42</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I79" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="L79" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="M79" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>-0.1002</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>-1.6500000000000001E-2</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="2">
         <v>-3.3700000000000001E-2</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>-1.6500000000000001E-2</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>-9.9199999999999997E-2</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="6">
         <v>-3.3700000000000001E-2</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I80" s="8">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="J80" s="2">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="K80" s="12">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="L80" s="2">
         <v>-3.3700000000000001E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="M80" s="2">
+        <v>-3.3700000000000001E-2</v>
+      </c>
+      <c r="N80" s="2">
+        <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="O80" s="8">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>0.15479999999999999</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="2">
         <v>0.107</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <v>0.15040000000000001</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H83" s="6">
         <v>0.1138</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I83" s="8">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.1032</v>
+      </c>
+      <c r="K83" s="12">
+        <v>0.1236</v>
+      </c>
+      <c r="L83" s="2">
         <v>0.1091</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="M83" s="2">
+        <v>0.1138</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B84" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="2">
         <v>9.35E-2</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D84" s="2">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E84" s="2">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="2">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I84" s="8">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="K84" s="12">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="L84" s="2">
         <v>5.3100000000000001E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="M84" s="2">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="N84" s="2">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="O84" s="8">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <v>0.72</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C85" s="1">
         <v>1.66</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D85" s="1">
         <v>1.9</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E85" s="1">
         <v>1.9</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G85" s="1">
         <v>1.66</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H85" s="5">
         <v>2.1</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I85" s="7">
+        <v>1.27</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="K85" s="11">
+        <v>1.52</v>
+      </c>
+      <c r="L85" s="1">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="M85" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N85" s="1">
+        <v>2</v>
+      </c>
+      <c r="O85" s="7">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B86" s="2">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>-6.2399999999999997E-2</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E86" s="2">
         <v>-3.32E-2</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>-2.07E-2</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>-6.0499999999999998E-2</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="6">
         <v>-3.1E-2</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I86" s="8">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="K86" s="12">
+        <v>-4.4299999999999999E-2</v>
+      </c>
+      <c r="L86" s="2">
         <v>-3.0700000000000002E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="M86" s="2">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="N86" s="2">
+        <v>-3.0499999999999999E-2</v>
+      </c>
+      <c r="O86" s="8">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C89" s="2">
         <v>0.18679999999999999</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D89" s="2">
         <v>0.17849999999999999</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E89" s="2">
         <v>0.17899999999999999</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F89" s="6">
         <v>0.13969999999999999</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G89" s="2">
         <v>0.18440000000000001</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H89" s="6">
         <v>0.16170000000000001</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I89" s="8">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.1807</v>
+      </c>
+      <c r="K89" s="12">
+        <v>0.1845</v>
+      </c>
+      <c r="L89" s="2">
         <v>0.16120000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="M89" s="2">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="O89" s="8">
+        <v>0.18310000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B90" s="2">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>4.36E-2</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D90" s="2">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E90" s="2">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>3.15E-2</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G90" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H90" s="6">
         <v>0.04</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I90" s="8">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="J90" s="2">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K90" s="12">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="L90" s="2">
         <v>3.9899999999999998E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="M90" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="N90" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="O90" s="8">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B91" s="1">
         <v>0.52</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C91" s="1">
         <v>4.28</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D91" s="1">
         <v>4.33</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E91" s="1">
         <v>4.08</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F91" s="5">
         <v>4.43</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G91" s="1">
         <v>4.29</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H91" s="5">
         <v>4.05</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I91" s="7">
+        <v>3.44</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3.39</v>
+      </c>
+      <c r="K91" s="11">
+        <v>3.47</v>
+      </c>
+      <c r="L91" s="1">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="M91" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="N91" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="O91" s="7">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="2">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>-1.29E-2</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D92" s="2">
         <v>-1.24E-2</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E92" s="2">
         <v>-1.4800000000000001E-2</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="2">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H92" s="6">
         <v>-1.35E-2</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I92" s="8">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="K92" s="12">
+        <v>-2.3400000000000001E-2</v>
+      </c>
+      <c r="L92" s="2">
         <v>-1.34E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="M92" s="2">
+        <v>-1.35E-2</v>
+      </c>
+      <c r="N92" s="2">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="O92" s="8">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="D94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B95" s="2">
         <v>1.34E-2</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="2">
         <v>-7.7100000000000002E-2</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D95" s="2">
         <v>-2.24E-2</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E95" s="2">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>-1.77E-2</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G95" s="2">
         <v>-2.2599999999999999E-2</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H95" s="6">
         <v>-3.09E-2</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I95" s="8">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="J95" s="2">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="K95" s="12">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="L95" s="2">
         <v>-3.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="M95" s="2">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="N95" s="2">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="O95" s="8">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B96" s="2">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="2">
         <v>0.13350000000000001</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D96" s="2">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E96" s="2">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>5.62E-2</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G96" s="2">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H96" s="6">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I96" s="8">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="J96" s="2">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="K96" s="12">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L96" s="2">
         <v>7.6399999999999996E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="M96" s="2">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="N96" s="2">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="O96" s="8">
+        <v>8.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C97" s="1">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D97" s="1">
         <v>-0.32</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E97" s="1">
         <v>-0.4</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F97" s="5">
         <v>-0.32</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>-0.32</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H97" s="5">
         <v>-0.4</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I97" s="7">
+        <v>-0.31</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-0.24</v>
+      </c>
+      <c r="K97" s="11">
+        <v>-0.31</v>
+      </c>
+      <c r="L97" s="1">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="M97" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="N97" s="1">
+        <v>-0.13</v>
+      </c>
+      <c r="O97" s="7">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>-3.5000000000000001E-3</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>-0.1686</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D98" s="2">
         <v>-7.2300000000000003E-2</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E98" s="2">
         <v>-7.9699999999999993E-2</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>-5.6899999999999999E-2</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G98" s="2">
         <v>-7.2900000000000006E-2</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H98" s="6">
         <v>-7.3700000000000002E-2</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I98" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="J98" s="2">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="K98" s="12">
+        <v>-9.3399999999999997E-2</v>
+      </c>
+      <c r="L98" s="2">
         <v>-7.3599999999999999E-2</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-7.3700000000000002E-2</v>
+      </c>
+      <c r="N98" s="2">
+        <v>-6.54E-2</v>
+      </c>
+      <c r="O98" s="8">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.2722</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0.1176</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0.1124</v>
+      </c>
+      <c r="O101" s="7">
+        <v>9.5200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="M102" s="2">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="N102" s="2">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="O102" s="7">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5.78</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3.72</v>
+      </c>
+      <c r="M103" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N103" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="O103" s="7">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="C104" s="2">
+        <v>-3.4299999999999997E-2</v>
+      </c>
+      <c r="M104" s="2">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="N104" s="2">
+        <v>-1.47E-2</v>
+      </c>
+      <c r="O104" s="7">
+        <v>-3.4299999999999997E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3007,12 +4767,1806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="22" customWidth="1"/>
+    <col min="7" max="16" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0514999999999999</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.5885</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2.3525999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.83E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.21E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1676</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-2.24E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.83279999999999998</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-0.22589999999999999</v>
+      </c>
+      <c r="E8" s="18">
+        <v>-0.25919999999999999</v>
+      </c>
+      <c r="F8" s="20">
+        <v>-0.32729999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1071</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.1085</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="F12" s="20">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.69</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1.55E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-7.8799999999999995E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>-5.8400000000000001E-2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>-6.1699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="F17" s="20">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-6.7299999999999999E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <v>-4.7699999999999999E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>-5.9200000000000003E-2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>-7.7200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.14940000000000001</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.1071</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.1065</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.1181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.98E-2</v>
+      </c>
+      <c r="D24" s="15">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.55</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1.33</v>
+      </c>
+      <c r="F25" s="21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="D26" s="15">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>-6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.51E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>5.79E-2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.1017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.66E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="D30" s="15">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1.48</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-8.7900000000000006E-2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>-3.0099999999999998E-2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>-8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.39589999999999997</v>
+      </c>
+      <c r="D35" s="15">
+        <v>-3.1899999999999998E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>-7.1800000000000003E-2</v>
+      </c>
+      <c r="F35" s="20">
+        <v>-0.1091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D36" s="15">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="D37" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="E37" s="17">
+        <v>-0.89</v>
+      </c>
+      <c r="F37" s="21">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-1.95E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-0.44290000000000002</v>
+      </c>
+      <c r="D38" s="15">
+        <v>-7.1199999999999999E-2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-0.1038</v>
+      </c>
+      <c r="F38" s="20">
+        <v>-0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.2445</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0.1736</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.2009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.2505</v>
+      </c>
+      <c r="D42" s="15">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1.79</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-0.2586</v>
+      </c>
+      <c r="D44" s="15">
+        <v>-5.5199999999999999E-2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="F44" s="20">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.01E-2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.1542</v>
+      </c>
+      <c r="D47" s="15">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>9.01E-2</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="D48" s="15">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0.12570000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D49" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F49" s="21">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-0.17230000000000001</v>
+      </c>
+      <c r="D50" s="15">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="E50" s="18">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+      <c r="F50" s="20">
+        <v>-0.13089999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D53" s="15">
+        <v>-4.6699999999999998E-2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>-2.58E-2</v>
+      </c>
+      <c r="F53" s="20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.1139</v>
+      </c>
+      <c r="E54" s="18">
+        <v>0.1361</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.15229999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D55" s="14">
+        <v>-0.41</v>
+      </c>
+      <c r="E55" s="17">
+        <v>-0.19</v>
+      </c>
+      <c r="F55" s="21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-5.1000000000000004E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <v>-0.18559999999999999</v>
+      </c>
+      <c r="D56" s="15">
+        <v>-0.1535</v>
+      </c>
+      <c r="E56" s="18">
+        <v>-0.1648</v>
+      </c>
+      <c r="F56" s="20">
+        <v>-0.17180000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D59" s="15">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="E59" s="18">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="F59" s="20">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.1176</v>
+      </c>
+      <c r="D60" s="15">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="F60" s="20">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-0.1012</v>
+      </c>
+      <c r="D62" s="15">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>-5.5300000000000002E-2</v>
+      </c>
+      <c r="F62" s="20">
+        <v>-7.8799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.2525</v>
+      </c>
+      <c r="D65" s="15">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0.1241</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0.21560000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1.41E-2</v>
+      </c>
+      <c r="E66" s="18">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="F66" s="20">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D67" s="14">
+        <v>2.67</v>
+      </c>
+      <c r="E67" s="17">
+        <v>2.54</v>
+      </c>
+      <c r="F67" s="21">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+      <c r="C68" s="2">
+        <v>-5.04E-2</v>
+      </c>
+      <c r="D68" s="15">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="E68" s="18">
+        <v>-2.8299999999999999E-2</v>
+      </c>
+      <c r="F68" s="20">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.1565</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E71" s="18">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="F71" s="20">
+        <v>0.1371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.1115</v>
+      </c>
+      <c r="D72" s="15">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E72" s="18">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="F72" s="20">
+        <v>9.8699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1.93</v>
+      </c>
+      <c r="E73" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="F73" s="21">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>-6.7799999999999999E-2</v>
+      </c>
+      <c r="D74" s="15">
+        <v>-5.4000000000000003E-3</v>
+      </c>
+      <c r="E74" s="18">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="F74" s="20">
+        <v>-6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F77" s="20">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D78" s="15">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="E78" s="18">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F78" s="20">
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="C80" s="2">
+        <v>-9.7699999999999995E-2</v>
+      </c>
+      <c r="D80" s="15">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="E80" s="18">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="F80" s="20">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="D83" s="15">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="E83" s="18">
+        <v>0.1032</v>
+      </c>
+      <c r="F83" s="20">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.1226</v>
+      </c>
+      <c r="D84" s="15">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="F84" s="20">
+        <v>8.7400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1.38</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1.29</v>
+      </c>
+      <c r="F85" s="21">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>-8.4599999999999995E-2</v>
+      </c>
+      <c r="D86" s="15">
+        <v>-3.4299999999999997E-2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="F86" s="20">
+        <v>-4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="E89" s="18">
+        <v>0.1807</v>
+      </c>
+      <c r="F89" s="20">
+        <v>0.17680000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="D90" s="15">
+        <v>4.99E-2</v>
+      </c>
+      <c r="E90" s="18">
+        <v>5.33E-2</v>
+      </c>
+      <c r="F90" s="20">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="D91" s="14">
+        <v>3.64</v>
+      </c>
+      <c r="E91" s="17">
+        <v>3.39</v>
+      </c>
+      <c r="F91" s="21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="D92" s="15">
+        <v>-0.02</v>
+      </c>
+      <c r="E92" s="18">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="F92" s="20">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C95" s="2">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="D95" s="15">
+        <v>-2.81E-2</v>
+      </c>
+      <c r="E95" s="18">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="F95" s="20">
+        <v>-2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.18010000000000001</v>
+      </c>
+      <c r="D96" s="15">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="E96" s="18">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="F96" s="20">
+        <v>0.1193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-0.35</v>
+      </c>
+      <c r="D97" s="14">
+        <v>-0.4</v>
+      </c>
+      <c r="E97" s="17">
+        <v>-0.24</v>
+      </c>
+      <c r="F97" s="21">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C98" s="2">
+        <v>-0.18479999999999999</v>
+      </c>
+      <c r="D98" s="15">
+        <v>-8.7599999999999997E-2</v>
+      </c>
+      <c r="E98" s="18">
+        <v>-9.0899999999999995E-2</v>
+      </c>
+      <c r="F98" s="20">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
